--- a/3. Resultados/2. reporte_de_ventas_NOV_16_30 - NOMINA/Johana Quimbay.xlsx
+++ b/3. Resultados/2. reporte_de_ventas_NOV_16_30 - NOMINA/Johana Quimbay.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t xml:space="preserve">Fecha de Pago</t>
   </si>
@@ -95,12 +95,12 @@
     <t xml:space="preserve">Gabriela Feijoo</t>
   </si>
   <si>
+    <t xml:space="preserve">Depilacion Cejas Cera</t>
+  </si>
+  <si>
     <t xml:space="preserve">Combo 3 Depilación  (completa)</t>
   </si>
   <si>
-    <t xml:space="preserve">Depilacion Cejas Cera</t>
-  </si>
-  <si>
     <t xml:space="preserve">28/11/2024 11:36</t>
   </si>
   <si>
@@ -317,16 +317,13 @@
     <t xml:space="preserve">Fondo - Ahorro</t>
   </si>
   <si>
-    <t xml:space="preserve">Descuento - Anticipo - 4 Boletas rifa</t>
-  </si>
-  <si>
     <t xml:space="preserve">23/11/2024</t>
   </si>
   <si>
     <t xml:space="preserve">Fondo - Almuerzo</t>
   </si>
   <si>
-    <t xml:space="preserve">Fondo - Rifa</t>
+    <t xml:space="preserve">Fondo - Rifa - 4 Boletas rifa</t>
   </si>
 </sst>
 </file>
@@ -903,10 +900,10 @@
         <v>9</v>
       </c>
       <c r="E12" t="n">
-        <v>100000</v>
+        <v>18000</v>
       </c>
       <c r="F12" t="n">
-        <v>51000</v>
+        <v>9180</v>
       </c>
     </row>
     <row r="13">
@@ -923,10 +920,10 @@
         <v>9</v>
       </c>
       <c r="E13" t="n">
-        <v>18000</v>
+        <v>100000</v>
       </c>
       <c r="F13" t="n">
-        <v>9180</v>
+        <v>51000</v>
       </c>
     </row>
     <row r="14">
@@ -1577,7 +1574,7 @@
         <v>75</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D46" t="s">
         <v>9</v>
@@ -2147,23 +2144,23 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="n">
-        <v>-40000</v>
+        <v>-17000</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
@@ -2174,22 +2171,6 @@
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1" t="n">
-        <v>-17000</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1" t="n">
         <v>-40000</v>
       </c>
     </row>
